--- a/Document/TimeLine_Tiểu luận về website Film Recomendation System.xlsx
+++ b/Document/TimeLine_Tiểu luận về website Film Recomendation System.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhd\OneDrive\Desktop\TLCN_CNPM\FilmRecommendation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B48FED3-2EED-496F-80DD-5D904177EE5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E10AB-BF48-4BFC-AC03-A334D815AEAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Construction Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>START DATE</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>Hoàn thành trang chi tiết (xem phim, mua vé, đánh giá, bình luận)</t>
+  </si>
+  <si>
+    <t>Xây dựng API python cho dư đoán</t>
+  </si>
+  <si>
+    <t>Viết báo cáo và deloy</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống dự đoán phim liên quan theo từng phim</t>
+  </si>
+  <si>
+    <t>Viết báo cáo và deloy web, api lên server</t>
+  </si>
+  <si>
+    <t>Xây dựng API python cho dự doán</t>
   </si>
 </sst>
 </file>
@@ -164,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +315,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -457,7 +479,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -520,6 +542,24 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -538,24 +578,10 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -604,8 +630,8 @@
           <c:yMode val="edge"/>
           <c:x val="4.1183646851141814E-2"/>
           <c:y val="9.1843851293879231E-2"/>
-          <c:w val="0.93191605498069607"/>
-          <c:h val="0.90225063730924115"/>
+          <c:w val="0.93122456499826778"/>
+          <c:h val="0.90815622139889396"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -636,9 +662,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Construction Gantt Chart'!$E$13:$E$28</c:f>
+              <c:f>'Construction Gantt Chart'!$E$13:$E$29</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Thiết kế và thống nhất bố cục web</c:v>
                 </c:pt>
@@ -680,6 +706,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Test, fix bug và lỗ hỏng bảo mật lần 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Xây dựng API python cho dự doán</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Viết báo cáo và deloy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -731,6 +763,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,9 +809,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Construction Gantt Chart'!$E$13:$E$28</c:f>
+              <c:f>'Construction Gantt Chart'!$E$13:$E$29</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Thiết kế và thống nhất bố cục web</c:v>
                 </c:pt>
@@ -815,16 +853,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Test, fix bug và lỗ hỏng bảo mật lần 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Xây dựng API python cho dự doán</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Viết báo cáo và deloy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Construction Gantt Chart'!$F$13:$F$28</c:f>
+              <c:f>'Construction Gantt Chart'!$F$13:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -868,10 +912,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,15 +1604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1914,8 +1958,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,7 +1972,7 @@
     <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
     <col min="17" max="18" width="2.33203125" style="1" customWidth="1"/>
     <col min="19" max="24" width="2.77734375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="8.88671875" style="1"/>
+    <col min="25" max="26" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="29.33203125" style="1" customWidth="1"/>
     <col min="28" max="28" width="53.109375" style="1" customWidth="1"/>
     <col min="29" max="16384" width="8.88671875" style="1"/>
@@ -1959,14 +2003,14 @@
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1983,12 +2027,12 @@
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2005,12 +2049,12 @@
     <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2049,17 +2093,17 @@
     <row r="6" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2075,15 +2119,15 @@
     <row r="7" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2123,13 +2167,13 @@
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2148,13 +2192,13 @@
     <row r="10" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2173,12 +2217,12 @@
     <row r="11" spans="1:28" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="16"/>
@@ -2209,7 +2253,7 @@
       <c r="E12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="17"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2257,12 +2301,12 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="Y13" s="36" t="s">
+      <c r="Y13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="38" t="s">
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2306,7 +2350,7 @@
       <c r="AA14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AB14" s="39"/>
+      <c r="AB14" s="33"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -2839,12 +2883,18 @@
     <row r="27" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28" t="str">
+      <c r="C27" s="25">
+        <v>44514</v>
+      </c>
+      <c r="D27" s="26">
+        <v>44529</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="28">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="9"/>
@@ -2877,12 +2927,18 @@
     <row r="28" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="24" t="str">
+      <c r="C28" s="19">
+        <v>44530</v>
+      </c>
+      <c r="D28" s="20">
+        <v>44535</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="24">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="9"/>
@@ -2934,6 +2990,18 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
+      <c r="Y29" s="42">
+        <v>44514</v>
+      </c>
+      <c r="Z29" s="42">
+        <v>44529</v>
+      </c>
+      <c r="AA29" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB29" s="43" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -2957,6 +3025,18 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
+      <c r="Y30" s="44">
+        <v>44530</v>
+      </c>
+      <c r="Z30" s="44">
+        <v>44535</v>
+      </c>
+      <c r="AA30" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="45" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:28" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
@@ -2983,17 +3063,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:H4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AB13:AB14"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C2:H4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Document/TimeLine_Tiểu luận về website Film Recomendation System.xlsx
+++ b/Document/TimeLine_Tiểu luận về website Film Recomendation System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhd\OneDrive\Desktop\TLCN_CNPM\FilmRecommendation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E10AB-BF48-4BFC-AC03-A334D815AEAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5626E97-9138-4A50-BEA7-3A941108D6C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,23 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
-  <si>
-    <t>START DATE</t>
-  </si>
-  <si>
-    <t>END DATE</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>DURATION
-(Days)</t>
-  </si>
-  <si>
-    <t>Construction Activities</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Project:</t>
   </si>
@@ -76,12 +60,6 @@
     <t>Nguyễn Thanh Bằng - 18110254</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Film recommandation</t>
-  </si>
-  <si>
     <t>Thiết kế giao điện trang chủ</t>
   </si>
   <si>
@@ -127,9 +105,6 @@
     <t>Hoàn thành giao diện chi tiết phim (Xem phim, đặt vé, bình luận, đánh giá)</t>
   </si>
   <si>
-    <t>Hoàn thành giao diện trang admin (quản lý phim, tài khoản, bình luận, phản hồi, biểu đồ)</t>
-  </si>
-  <si>
     <t>Thiết kế hoàn chỉnh cơ sở dữ liệu và định hướng dữ liệu cho các chức năng</t>
   </si>
   <si>
@@ -148,9 +123,6 @@
     <t>Hoàn thành các chức năng quản lý của admin</t>
   </si>
   <si>
-    <t>Xử lý cho các chức năng quản lý, vẽ biểu đồ của admin</t>
-  </si>
-  <si>
     <t>Hoàn thành hệ thống gợi ý dựa trên lịch sử người dùng</t>
   </si>
   <si>
@@ -170,6 +142,37 @@
   </si>
   <si>
     <t>Xây dựng API python cho dự doán</t>
+  </si>
+  <si>
+    <t>Số ngày thực hiện
+(Ngày)</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ</t>
+  </si>
+  <si>
+    <t>Xử lý cho các chức năng quản lý của admin</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành giao diện trang admin (quản lý phim, tài khoản, bình luận, phản hồi, biểu đồ)</t>
+  </si>
+  <si>
+    <t>Xây dựng trang web phim áp dụng hệ thống dự đoán phim</t>
+  </si>
+  <si>
+    <t>mô tả</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -542,6 +545,25 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -560,28 +582,10 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -647,7 +651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>START DATE</c:v>
+                  <c:v>Ngày bắt đầu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -788,8 +792,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DURATION
-(Days)</c:v>
+                  <c:v>Số ngày thực hiện
+(Ngày)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1958,8 +1962,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,7 +1972,9 @@
     <col min="3" max="4" width="8.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
-    <col min="7" max="15" width="8.88671875" style="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
+    <col min="10" max="15" width="8.88671875" style="1"/>
     <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
     <col min="17" max="18" width="2.33203125" style="1" customWidth="1"/>
     <col min="19" max="24" width="2.77734375" style="1" customWidth="1"/>
@@ -2003,14 +2009,14 @@
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2027,12 +2033,12 @@
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2049,12 +2055,12 @@
     <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2093,19 +2099,19 @@
     <row r="6" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="C6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2119,15 +2125,15 @@
     <row r="7" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2167,13 +2173,13 @@
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="C9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2192,13 +2198,13 @@
     <row r="10" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2217,13 +2223,13 @@
     <row r="11" spans="1:28" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32" t="s">
-        <v>3</v>
+      <c r="C11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="5"/>
@@ -2245,15 +2251,15 @@
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="22" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="F12" s="42"/>
       <c r="G12" s="17"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2280,7 +2286,7 @@
         <v>44435</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" s="28">
         <f>IF(AND(ISBLANK(C13),ISBLANK(D13)),"",DAYS360(C13,D13,FALSE))</f>
@@ -2301,13 +2307,13 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="Y13" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="32" t="s">
-        <v>13</v>
+      <c r="Y13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="41" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2320,7 +2326,7 @@
         <v>44441</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F14" s="24">
         <f t="shared" ref="F14:F17" si="0">IF(AND(ISBLANK(C14),ISBLANK(D14)),"",DAYS360(C14,D14,FALSE))</f>
@@ -2342,15 +2348,15 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="Y14" s="22" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z14" s="23" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" s="42"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -2362,7 +2368,7 @@
         <v>44444</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
@@ -2390,10 +2396,10 @@
         <v>44435</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2406,7 +2412,7 @@
         <v>44449</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F16" s="24">
         <f t="shared" si="0"/>
@@ -2434,10 +2440,10 @@
         <v>44441</v>
       </c>
       <c r="AA16" s="21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AB16" s="21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2450,7 +2456,7 @@
         <v>44455</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
@@ -2478,10 +2484,10 @@
         <v>44444</v>
       </c>
       <c r="AA17" s="27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2494,7 +2500,7 @@
         <v>44459</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F18" s="24">
         <f>IF(AND(ISBLANK(C18),ISBLANK(D18)),"",DAYS360(C18,D18,FALSE))</f>
@@ -2522,10 +2528,10 @@
         <v>44449</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AB18" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2538,7 +2544,7 @@
         <v>44466</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" ref="F19:F28" si="1">IF(AND(ISBLANK(C19),ISBLANK(D19)),"",DAYS360(C19,D19,FALSE))</f>
@@ -2566,10 +2572,10 @@
         <v>44455</v>
       </c>
       <c r="AA19" s="27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2582,7 +2588,7 @@
         <v>44474</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="1"/>
@@ -2610,10 +2616,10 @@
         <v>44459</v>
       </c>
       <c r="AA20" s="21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB20" s="21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2626,7 +2632,7 @@
         <v>44481</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" si="1"/>
@@ -2654,10 +2660,10 @@
         <v>44466</v>
       </c>
       <c r="AA21" s="27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AB21" s="27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2670,7 +2676,7 @@
         <v>44483</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F22" s="24">
         <f t="shared" si="1"/>
@@ -2698,10 +2704,10 @@
         <v>44474</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2714,7 +2720,7 @@
         <v>44488</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" si="1"/>
@@ -2742,10 +2748,10 @@
         <v>44481</v>
       </c>
       <c r="AA23" s="27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AB23" s="27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2758,7 +2764,7 @@
         <v>44499</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" s="24">
         <f t="shared" si="1"/>
@@ -2786,10 +2792,10 @@
         <v>44483</v>
       </c>
       <c r="AA24" s="21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AB24" s="21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2802,7 +2808,7 @@
         <v>44505</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" si="1"/>
@@ -2830,10 +2836,10 @@
         <v>44488</v>
       </c>
       <c r="AA25" s="27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2846,7 +2852,7 @@
         <v>44513</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="1"/>
@@ -2874,10 +2880,10 @@
         <v>44499</v>
       </c>
       <c r="AA26" s="21" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB26" s="21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2890,7 +2896,7 @@
         <v>44529</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="1"/>
@@ -2918,10 +2924,10 @@
         <v>44505</v>
       </c>
       <c r="AA27" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AB27" s="27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2934,7 +2940,7 @@
         <v>44535</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="1"/>
@@ -2962,10 +2968,10 @@
         <v>44513</v>
       </c>
       <c r="AA28" s="21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2990,17 +2996,17 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="Y29" s="42">
+      <c r="Y29" s="30">
         <v>44514</v>
       </c>
-      <c r="Z29" s="42">
+      <c r="Z29" s="30">
         <v>44529</v>
       </c>
-      <c r="AA29" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB29" s="43" t="s">
-        <v>42</v>
+      <c r="AA29" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3025,17 +3031,17 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="Y30" s="44">
+      <c r="Y30" s="32">
         <v>44530</v>
       </c>
-      <c r="Z30" s="44">
+      <c r="Z30" s="32">
         <v>44535</v>
       </c>
-      <c r="AA30" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB30" s="45" t="s">
-        <v>43</v>
+      <c r="AA30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB30" s="33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3062,18 +3068,17 @@
       <c r="U31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C2:H4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
+  <mergeCells count="10">
     <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AB13:AB14"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C2:H4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
